--- a/2 course/2 term/electrical engineering/labs/lab 1/lab1.xlsx
+++ b/2 course/2 term/electrical engineering/labs/lab 1/lab1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\data\education\2 course\2 term\electrical engineering\labs\lab 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84DD7849-2E74-49A7-9DFE-BA2BD7AFAA1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EB5C986-10AC-413E-821F-6D664B48A176}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14115" yWindow="-21600" windowWidth="25800" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t>1) Rнагр</t>
   </si>
@@ -87,20 +87,27 @@
     <t xml:space="preserve">C = </t>
   </si>
   <si>
-    <t>49.342</t>
+    <t xml:space="preserve">Uвх (В)= </t>
   </si>
   <si>
-    <t>Uп=</t>
+    <t>Uп (мВ)=</t>
+  </si>
+  <si>
+    <t>Uп (B)=</t>
+  </si>
+  <si>
+    <t>7)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.00000000"/>
+    <numFmt numFmtId="165" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -108,16 +115,36 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -125,14 +152,209 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -148,6 +370,3193 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$K$18:$K$41</c:f>
+              <c:numCache>
+                <c:formatCode>0.00000</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>5.1199999999999998E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.1000000000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.0599999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.502</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.7142857142857143</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.24</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.4300000000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.9499999999999997</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.7249999999999996</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10.55</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>18.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>21.749999999999996</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>24.000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>26.666666666666668</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>34.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>41.000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>50.499999999999993</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>57.533333333333339</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>61.07692307692308</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>67.599999999999994</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$H$18:$H$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>25.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24.8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24.3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>23.7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>22.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>21.1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>18.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>17.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16.8</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>13.8</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>12.3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>10.1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>9.5399999999999991</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>8.6300000000000008</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>7.94</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>6.76</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3822-4846-BA20-DAC8C075095D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="728703344"/>
+        <c:axId val="728705504"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="728703344"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="728705504"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="728705504"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="728703344"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$K$18:$K$41</c:f>
+              <c:numCache>
+                <c:formatCode>0.00000</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>5.1199999999999998E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.1000000000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.0599999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.502</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.7142857142857143</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.24</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.4300000000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.9499999999999997</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.7249999999999996</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10.55</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>18.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>21.749999999999996</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>24.000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>26.666666666666668</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>34.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>41.000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>50.499999999999993</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>57.533333333333339</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>61.07692307692308</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>67.599999999999994</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$J$18:$J$41</c:f>
+              <c:numCache>
+                <c:formatCode>0.00000</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>4.6874999999999998E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2941176470588236E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.1343873517786563E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.7171314741035854E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.452E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.3548387096774194E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.0123456790123443E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.11166666666666666</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.14767932489451477</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.21572052401746725</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.41753554502369661</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.88333333333333341</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.99425287356321856</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.1130952380952381</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.28125</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.5000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.8043478260869563</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.2357723577235773</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.891089108910891</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.050314465408805</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.3140208574739281</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.4760705289672544</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.7278106508875739</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F42F-47FB-AAE5-31278232F452}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="728703344"/>
+        <c:axId val="728705504"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="728703344"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="728705504"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="728705504"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="728703344"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Диаграмма 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99A049DB-9FC8-3EC4-719C-41EAB3AA38E3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Диаграмма 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{453DD467-8361-41C9-9E36-833FD2C008A4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>31718</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>22701</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="425308" cy="172227"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="6" name="TextBox 5">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E6E5FA1-6E70-03AA-3A75-FD19F9FC3A4F}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3898868" y="3080226"/>
+              <a:ext cx="425308" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑅</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="ru-RU" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>н</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <a:rPr lang="ru-RU" sz="1100" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>, Ом</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="ru-RU" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="6" name="TextBox 5">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E6E5FA1-6E70-03AA-3A75-FD19F9FC3A4F}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3898868" y="3080226"/>
+              <a:ext cx="425308" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑅</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>н</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>, Ом</a:t>
+              </a:r>
+              <a:endParaRPr lang="ru-RU" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="414665" cy="172227"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="7" name="TextBox 6">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D42FE5F-F2B9-F6F0-1A40-87A1A79A9839}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4391025" y="3071812"/>
+              <a:ext cx="414665" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <m:rPr>
+                        <m:nor/>
+                      </m:rPr>
+                      <a:rPr lang="ru-RU" sz="1100">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>U</m:t>
+                    </m:r>
+                    <m:r>
+                      <m:rPr>
+                        <m:nor/>
+                      </m:rPr>
+                      <a:rPr lang="ru-RU" sz="1100" baseline="-25000">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>вых</m:t>
+                    </m:r>
+                    <m:r>
+                      <m:rPr>
+                        <m:nor/>
+                      </m:rPr>
+                      <a:rPr lang="ru-RU" sz="1100">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>, В</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="ru-RU" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="7" name="TextBox 6">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D42FE5F-F2B9-F6F0-1A40-87A1A79A9839}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4391025" y="3071812"/>
+              <a:ext cx="414665" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>"U</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" i="0" baseline="-25000">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>вых</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>, В</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>"</a:t>
+              </a:r>
+              <a:endParaRPr lang="ru-RU" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="315214" cy="172227"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="8" name="TextBox 7">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46FAADDB-DACA-CE4B-2742-096DC784D8F0}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4876800" y="3062287"/>
+              <a:ext cx="315214" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <m:rPr>
+                        <m:nor/>
+                      </m:rPr>
+                      <a:rPr lang="ru-RU" sz="1100">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>U</m:t>
+                    </m:r>
+                    <m:r>
+                      <m:rPr>
+                        <m:nor/>
+                      </m:rPr>
+                      <a:rPr lang="ru-RU" sz="1100" baseline="-25000">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>п</m:t>
+                    </m:r>
+                    <m:r>
+                      <m:rPr>
+                        <m:nor/>
+                      </m:rPr>
+                      <a:rPr lang="ru-RU" sz="1100">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>, В</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="ru-RU" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="8" name="TextBox 7">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46FAADDB-DACA-CE4B-2742-096DC784D8F0}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4876800" y="3062287"/>
+              <a:ext cx="315214" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>"U</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" i="0" baseline="-25000">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>п</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>, В</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>"</a:t>
+              </a:r>
+              <a:endParaRPr lang="ru-RU" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="322075" cy="172227"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="9" name="TextBox 8">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C47B117C-786D-A4FC-21BA-592BA50FCB23}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5362575" y="3071812"/>
+              <a:ext cx="322075" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <m:rPr>
+                        <m:nor/>
+                      </m:rPr>
+                      <a:rPr lang="ru-RU" sz="1100">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>K</m:t>
+                    </m:r>
+                    <m:r>
+                      <m:rPr>
+                        <m:nor/>
+                      </m:rPr>
+                      <a:rPr lang="ru-RU" sz="1100" baseline="-25000">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>п</m:t>
+                    </m:r>
+                    <m:r>
+                      <m:rPr>
+                        <m:nor/>
+                      </m:rPr>
+                      <a:rPr lang="ru-RU" sz="1100">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>, %</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="ru-RU" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="9" name="TextBox 8">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C47B117C-786D-A4FC-21BA-592BA50FCB23}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5362575" y="3071812"/>
+              <a:ext cx="322075" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>"K</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" i="0" baseline="-25000">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>п</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>, %</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>"</a:t>
+              </a:r>
+              <a:endParaRPr lang="ru-RU" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="364522" cy="172227"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="10" name="TextBox 9">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9DFA9E9-9E04-30BA-3724-0D79417B0CA2}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5895975" y="3071812"/>
+              <a:ext cx="364522" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <m:rPr>
+                        <m:nor/>
+                      </m:rPr>
+                      <a:rPr lang="ru-RU" sz="1100">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>I</m:t>
+                    </m:r>
+                    <m:r>
+                      <m:rPr>
+                        <m:nor/>
+                      </m:rPr>
+                      <a:rPr lang="ru-RU" sz="1100" baseline="-25000">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>вых</m:t>
+                    </m:r>
+                    <m:r>
+                      <m:rPr>
+                        <m:nor/>
+                      </m:rPr>
+                      <a:rPr lang="ru-RU" sz="1100">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>, А</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="ru-RU" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="10" name="TextBox 9">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9DFA9E9-9E04-30BA-3724-0D79417B0CA2}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5895975" y="3071812"/>
+              <a:ext cx="364522" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>"I</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" i="0" baseline="-25000">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>вых</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>, А</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>"</a:t>
+              </a:r>
+              <a:endParaRPr lang="ru-RU" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -413,237 +3822,971 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:R42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C59" sqref="C59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="8" max="9" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="4" width="9.140625" style="1"/>
+    <col min="5" max="5" width="12.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="1"/>
+    <col min="7" max="8" width="11.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="13.85546875" style="1" customWidth="1"/>
+    <col min="10" max="11" width="12.7109375" style="1" customWidth="1"/>
+    <col min="12" max="18" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1">
+      <c r="C1" s="1">
         <f>(G2*G2)/G3</f>
         <v>0.5</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1">
+      <c r="G1" s="1">
         <v>500</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="K1" t="s">
-        <v>20</v>
-      </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F2" t="s">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="F2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="1">
         <v>15</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F3" t="s">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="F3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="1">
         <v>450</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F4" t="s">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="F4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="1">
         <v>1.5</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F5" t="s">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="F6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H5">
+      <c r="H6" s="1">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G6" t="s">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="G7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H6">
+      <c r="H7" s="1">
         <v>24.6</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G7" t="s">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="G8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H7">
-        <f>H6/H5</f>
+      <c r="H8" s="1">
+        <f>H7/H6</f>
         <v>1.6400000000000001</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I8" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F8" t="s">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="F10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H10" s="2">
         <f>(5*C1)/G1</f>
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="I8" s="2">
-        <f>H8*H13</f>
-        <v>2.1276595744680853E-6</v>
-      </c>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
+      <c r="I10" s="2">
+        <f>0.001</f>
+        <v>1E-3</v>
+      </c>
+      <c r="J10" s="2">
+        <f>0.001</f>
+        <v>1E-3</v>
+      </c>
+      <c r="K10" s="2">
+        <f>0.001</f>
+        <v>1E-3</v>
+      </c>
+      <c r="L10" s="2">
+        <f>0.001</f>
+        <v>1E-3</v>
+      </c>
+      <c r="M10" s="1">
+        <f>0.0015</f>
+        <v>1.5E-3</v>
+      </c>
+      <c r="N10" s="1">
+        <v>1.3749999999999999E-3</v>
+      </c>
+      <c r="O10" s="1">
+        <v>1.3125000000000001E-3</v>
+      </c>
+      <c r="P10" s="3">
+        <v>1.3062499999999999E-3</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>1.30313E-3</v>
+      </c>
+      <c r="R10" s="4">
+        <v>1.3</v>
+      </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G9" t="s">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="G11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H9" s="2">
+      <c r="H11" s="2">
         <f>2/(C1*G1)</f>
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="I9" s="2">
-        <f>H9*H13</f>
-        <v>3.4042553191489363E-6</v>
-      </c>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
+      <c r="I11" s="2">
+        <f>0.0016</f>
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="J11" s="2">
+        <v>2E-3</v>
+      </c>
+      <c r="K11" s="2">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="L11" s="2">
+        <v>2.3999999999999998E-3</v>
+      </c>
+      <c r="M11" s="2">
+        <v>2.3999999999999998E-3</v>
+      </c>
+      <c r="N11" s="2">
+        <v>2.2000000000000001E-3</v>
+      </c>
+      <c r="O11" s="2">
+        <v>2.0999999999999999E-3</v>
+      </c>
+      <c r="P11" s="5">
+        <v>2.0899999999999998E-3</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>2.085E-3</v>
+      </c>
+      <c r="R11" s="6">
+        <v>2.1</v>
+      </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G10" t="s">
-        <v>13</v>
-      </c>
-      <c r="H10" s="2">
-        <v>47</v>
-      </c>
-      <c r="I10" s="2">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="G12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H12" s="2">
         <v>15</v>
       </c>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
+      <c r="I12" s="2">
+        <v>15</v>
+      </c>
+      <c r="J12" s="2">
+        <v>15</v>
+      </c>
+      <c r="K12" s="2">
+        <v>15</v>
+      </c>
+      <c r="L12" s="2">
+        <v>15</v>
+      </c>
+      <c r="M12" s="2">
+        <v>15</v>
+      </c>
+      <c r="N12" s="2">
+        <v>15</v>
+      </c>
+      <c r="O12" s="2">
+        <v>15</v>
+      </c>
+      <c r="P12" s="5">
+        <v>15</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>15</v>
+      </c>
+      <c r="R12" s="6">
+        <v>15</v>
+      </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G11" t="s">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="G13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H11" s="2">
-        <f>0.03</f>
-        <v>0.03</v>
-      </c>
-      <c r="I11" s="2">
-        <v>24.6</v>
-      </c>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
+      <c r="H13" s="2">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="I13" s="2">
+        <v>504</v>
+      </c>
+      <c r="J13" s="2">
+        <v>327</v>
+      </c>
+      <c r="K13" s="2">
+        <v>212</v>
+      </c>
+      <c r="L13" s="2">
+        <v>231</v>
+      </c>
+      <c r="M13" s="2">
+        <v>150</v>
+      </c>
+      <c r="N13" s="2">
+        <v>195</v>
+      </c>
+      <c r="O13" s="2">
+        <v>223</v>
+      </c>
+      <c r="P13" s="5">
+        <v>226</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>227</v>
+      </c>
+      <c r="R13" s="6">
+        <v>225</v>
+      </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G12" t="s">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="G14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H14" s="2">
+        <f>H13*10^(-3)</f>
+        <v>4.5999999999999999E-3</v>
+      </c>
+      <c r="I14" s="2">
+        <f>I13*10^(-3)</f>
+        <v>0.504</v>
+      </c>
+      <c r="J14" s="2">
+        <f>J13*10^(-3)</f>
+        <v>0.32700000000000001</v>
+      </c>
+      <c r="K14" s="2">
+        <f>K13*10^(-3)</f>
+        <v>0.21199999999999999</v>
+      </c>
+      <c r="L14" s="2">
+        <f>L13*10^(-3)</f>
+        <v>0.23100000000000001</v>
+      </c>
+      <c r="M14" s="2">
+        <f>M13*10^(-3)</f>
+        <v>0.15</v>
+      </c>
+      <c r="N14" s="2">
+        <f>N13*10^(-3)</f>
+        <v>0.19500000000000001</v>
+      </c>
+      <c r="O14" s="2">
+        <f>O13*10^(-3)</f>
+        <v>0.223</v>
+      </c>
+      <c r="P14" s="5">
+        <f>P13*10^(-3)</f>
+        <v>0.22600000000000001</v>
+      </c>
+      <c r="Q14" s="2">
+        <f>Q13*10^(-3)</f>
+        <v>0.22700000000000001</v>
+      </c>
+      <c r="R14" s="6">
+        <f>R13*10^(-3)</f>
+        <v>0.22500000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="G15" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H12" s="2">
-        <f>H11/H10</f>
-        <v>6.382978723404255E-4</v>
-      </c>
-      <c r="I12" s="2">
-        <f>I11/I10</f>
-        <v>1.6400000000000001</v>
-      </c>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
+      <c r="H15" s="2">
+        <f>H14/H12*100</f>
+        <v>3.0666666666666668E-2</v>
+      </c>
+      <c r="I15" s="2">
+        <f>I14/I12*100</f>
+        <v>3.36</v>
+      </c>
+      <c r="J15" s="2">
+        <f>J14/J12*100</f>
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="K15" s="2">
+        <f>K14/K12*100</f>
+        <v>1.4133333333333333</v>
+      </c>
+      <c r="L15" s="2">
+        <f>L14/L12*100</f>
+        <v>1.54</v>
+      </c>
+      <c r="M15" s="2">
+        <f>M14/M12*100</f>
+        <v>1</v>
+      </c>
+      <c r="N15" s="2">
+        <f>N14/N12*100</f>
+        <v>1.3</v>
+      </c>
+      <c r="O15" s="2">
+        <f>O14/O12*100</f>
+        <v>1.4866666666666668</v>
+      </c>
+      <c r="P15" s="5">
+        <f>P14/P12*100</f>
+        <v>1.5066666666666668</v>
+      </c>
+      <c r="Q15" s="2">
+        <f>Q14/Q12*100</f>
+        <v>1.5133333333333334</v>
+      </c>
+      <c r="R15" s="6">
+        <f>R14/R12*100</f>
+        <v>1.5000000000000002</v>
+      </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="H13" s="2">
-        <f>H12/$G$4</f>
-        <v>4.2553191489361702E-4</v>
-      </c>
-      <c r="I13" s="2">
-        <f>I12/$G$4</f>
-        <v>1.0933333333333335</v>
-      </c>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
+    <row r="16" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
+    <row r="17" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G17" s="21"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="23"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>80.34</v>
-      </c>
-      <c r="B18" s="1">
-        <f>B19/A19 * A18</f>
-        <v>64.790322580645153</v>
-      </c>
-      <c r="C18" s="1"/>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D18" s="1">
+        <v>0.12</v>
+      </c>
+      <c r="G18" s="17">
+        <v>50000</v>
+      </c>
+      <c r="H18" s="18">
+        <v>25.6</v>
+      </c>
+      <c r="I18" s="18">
+        <f t="shared" ref="I18:I20" si="0">D18*10^(-3)</f>
+        <v>1.2E-4</v>
+      </c>
+      <c r="J18" s="19">
+        <f t="shared" ref="J18:J20" si="1">I18/H18*100</f>
+        <v>4.6874999999999998E-4</v>
+      </c>
+      <c r="K18" s="20">
+        <f>H18/G18</f>
+        <v>5.1199999999999998E-4</v>
+      </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>18.600000000000001</v>
-      </c>
-      <c r="B19" s="1">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D19" s="1">
+        <v>0.33</v>
+      </c>
+      <c r="G19" s="9">
+        <v>5000</v>
+      </c>
+      <c r="H19" s="10">
+        <v>25.5</v>
+      </c>
+      <c r="I19" s="10">
+        <f t="shared" si="0"/>
+        <v>3.3E-4</v>
+      </c>
+      <c r="J19" s="11">
+        <f t="shared" si="1"/>
+        <v>1.2941176470588236E-3</v>
+      </c>
+      <c r="K19" s="12">
+        <f t="shared" ref="K19:K20" si="2">H19/G19</f>
+        <v>5.1000000000000004E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D20" s="1">
+        <v>0.54</v>
+      </c>
+      <c r="G20" s="9">
+        <v>500</v>
+      </c>
+      <c r="H20" s="10">
+        <v>25.3</v>
+      </c>
+      <c r="I20" s="10">
+        <f t="shared" si="0"/>
+        <v>5.4000000000000001E-4</v>
+      </c>
+      <c r="J20" s="11">
+        <f t="shared" si="1"/>
+        <v>2.1343873517786563E-3</v>
+      </c>
+      <c r="K20" s="12">
+        <f t="shared" si="2"/>
+        <v>5.0599999999999999E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D21" s="7">
+        <v>4.3099999999999996</v>
+      </c>
+      <c r="G21" s="9">
+        <v>50</v>
+      </c>
+      <c r="H21" s="10">
+        <v>25.1</v>
+      </c>
+      <c r="I21" s="10">
+        <f>D21*10^(-3)</f>
+        <v>4.3099999999999996E-3</v>
+      </c>
+      <c r="J21" s="11">
+        <f>I21/H21*100</f>
+        <v>1.7171314741035854E-2</v>
+      </c>
+      <c r="K21" s="12">
+        <f>H21/G21</f>
+        <v>0.502</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D22" s="7">
+        <v>6.13</v>
+      </c>
+      <c r="G22" s="9">
+        <v>35</v>
+      </c>
+      <c r="H22" s="10">
+        <v>25</v>
+      </c>
+      <c r="I22" s="10">
+        <f t="shared" ref="I22:I41" si="3">D22*10^(-3)</f>
+        <v>6.13E-3</v>
+      </c>
+      <c r="J22" s="11">
+        <f t="shared" ref="J22:J41" si="4">I22/H22*100</f>
+        <v>2.452E-2</v>
+      </c>
+      <c r="K22" s="12">
+        <f t="shared" ref="K22:K41" si="5">H22/G22</f>
+        <v>0.7142857142857143</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="8"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="7">
+        <v>10.8</v>
+      </c>
+      <c r="G23" s="9">
+        <v>20</v>
+      </c>
+      <c r="H23" s="10">
+        <v>24.8</v>
+      </c>
+      <c r="I23" s="10">
+        <f t="shared" si="3"/>
+        <v>1.0800000000000001E-2</v>
+      </c>
+      <c r="J23" s="11">
+        <f t="shared" si="4"/>
+        <v>4.3548387096774194E-2</v>
+      </c>
+      <c r="K23" s="12">
+        <f t="shared" si="5"/>
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>26.1</v>
+      </c>
+      <c r="B24" s="8">
+        <f>B25/A25 * A24</f>
+        <v>67.037671232876718</v>
+      </c>
+      <c r="C24" s="8"/>
+      <c r="D24" s="7">
+        <v>21.9</v>
+      </c>
+      <c r="G24" s="9">
+        <v>10</v>
+      </c>
+      <c r="H24" s="10">
+        <v>24.3</v>
+      </c>
+      <c r="I24" s="10">
+        <f t="shared" si="3"/>
+        <v>2.1899999999999999E-2</v>
+      </c>
+      <c r="J24" s="11">
+        <f t="shared" si="4"/>
+        <v>9.0123456790123443E-2</v>
+      </c>
+      <c r="K24" s="12">
+        <f t="shared" si="5"/>
+        <v>2.4300000000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="8">
+        <v>5.84</v>
+      </c>
+      <c r="B25" s="8">
         <v>15</v>
       </c>
-      <c r="C19" s="1"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="7">
+        <v>26.8</v>
+      </c>
+      <c r="G25" s="9">
+        <v>8</v>
+      </c>
+      <c r="H25" s="10">
+        <v>24</v>
+      </c>
+      <c r="I25" s="10">
+        <f t="shared" si="3"/>
+        <v>2.6800000000000001E-2</v>
+      </c>
+      <c r="J25" s="11">
+        <f t="shared" si="4"/>
+        <v>0.11166666666666666</v>
+      </c>
+      <c r="K25" s="12">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="8"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="7">
+        <v>35</v>
+      </c>
+      <c r="G26" s="9">
+        <v>6</v>
+      </c>
+      <c r="H26" s="10">
+        <v>23.7</v>
+      </c>
+      <c r="I26" s="10">
+        <f t="shared" si="3"/>
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="J26" s="11">
+        <f t="shared" si="4"/>
+        <v>0.14767932489451477</v>
+      </c>
+      <c r="K26" s="12">
+        <f t="shared" si="5"/>
+        <v>3.9499999999999997</v>
+      </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="8"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="7">
+        <v>49.4</v>
+      </c>
+      <c r="G27" s="9">
+        <v>4</v>
+      </c>
+      <c r="H27" s="10">
+        <v>22.9</v>
+      </c>
+      <c r="I27" s="10">
+        <f t="shared" si="3"/>
+        <v>4.9399999999999999E-2</v>
+      </c>
+      <c r="J27" s="11">
+        <f t="shared" si="4"/>
+        <v>0.21572052401746725</v>
+      </c>
+      <c r="K27" s="12">
+        <f t="shared" si="5"/>
+        <v>5.7249999999999996</v>
+      </c>
     </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D28" s="7">
+        <v>88.1</v>
+      </c>
+      <c r="G28" s="9">
+        <v>2</v>
+      </c>
+      <c r="H28" s="10">
+        <v>21.1</v>
+      </c>
+      <c r="I28" s="10">
+        <f t="shared" si="3"/>
+        <v>8.8099999999999998E-2</v>
+      </c>
+      <c r="J28" s="11">
+        <f t="shared" si="4"/>
+        <v>0.41753554502369661</v>
+      </c>
+      <c r="K28" s="12">
+        <f t="shared" si="5"/>
+        <v>10.55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D29" s="7">
+        <v>148</v>
+      </c>
+      <c r="G29" s="9">
+        <v>1</v>
+      </c>
+      <c r="H29" s="10">
+        <v>18.5</v>
+      </c>
+      <c r="I29" s="10">
+        <f t="shared" si="3"/>
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="J29" s="11">
+        <f t="shared" si="4"/>
+        <v>0.8</v>
+      </c>
+      <c r="K29" s="12">
+        <f t="shared" si="5"/>
+        <v>18.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D30" s="7">
+        <v>159</v>
+      </c>
+      <c r="G30" s="9">
+        <v>0.9</v>
+      </c>
+      <c r="H30" s="10">
+        <v>18</v>
+      </c>
+      <c r="I30" s="10">
+        <f t="shared" si="3"/>
+        <v>0.159</v>
+      </c>
+      <c r="J30" s="11">
+        <f t="shared" si="4"/>
+        <v>0.88333333333333341</v>
+      </c>
+      <c r="K30" s="12">
+        <f t="shared" si="5"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D31" s="7">
+        <v>173</v>
+      </c>
+      <c r="G31" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="H31" s="10">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="I31" s="10">
+        <f t="shared" si="3"/>
+        <v>0.17300000000000001</v>
+      </c>
+      <c r="J31" s="11">
+        <f t="shared" si="4"/>
+        <v>0.99425287356321856</v>
+      </c>
+      <c r="K31" s="12">
+        <f t="shared" si="5"/>
+        <v>21.749999999999996</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D32" s="7">
+        <v>187</v>
+      </c>
+      <c r="G32" s="9">
+        <v>0.7</v>
+      </c>
+      <c r="H32" s="10">
+        <v>16.8</v>
+      </c>
+      <c r="I32" s="10">
+        <f t="shared" si="3"/>
+        <v>0.187</v>
+      </c>
+      <c r="J32" s="11">
+        <f t="shared" si="4"/>
+        <v>1.1130952380952381</v>
+      </c>
+      <c r="K32" s="12">
+        <f t="shared" si="5"/>
+        <v>24.000000000000004</v>
+      </c>
+    </row>
+    <row r="33" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D33" s="7">
+        <v>205</v>
+      </c>
+      <c r="G33" s="9">
+        <v>0.6</v>
+      </c>
+      <c r="H33" s="10">
+        <v>16</v>
+      </c>
+      <c r="I33" s="10">
+        <f t="shared" si="3"/>
+        <v>0.20500000000000002</v>
+      </c>
+      <c r="J33" s="11">
+        <f t="shared" si="4"/>
+        <v>1.28125</v>
+      </c>
+      <c r="K33" s="12">
+        <f t="shared" si="5"/>
+        <v>26.666666666666668</v>
+      </c>
+    </row>
+    <row r="34" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D34" s="7">
+        <v>225</v>
+      </c>
+      <c r="G34" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="H34" s="10">
+        <v>15</v>
+      </c>
+      <c r="I34" s="10">
+        <f t="shared" si="3"/>
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="J34" s="11">
+        <f t="shared" si="4"/>
+        <v>1.5000000000000002</v>
+      </c>
+      <c r="K34" s="12">
+        <f t="shared" si="5"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D35" s="7">
+        <v>249</v>
+      </c>
+      <c r="G35" s="9">
+        <v>0.4</v>
+      </c>
+      <c r="H35" s="10">
+        <v>13.8</v>
+      </c>
+      <c r="I35" s="10">
+        <f t="shared" si="3"/>
+        <v>0.249</v>
+      </c>
+      <c r="J35" s="11">
+        <f t="shared" si="4"/>
+        <v>1.8043478260869563</v>
+      </c>
+      <c r="K35" s="12">
+        <f t="shared" si="5"/>
+        <v>34.5</v>
+      </c>
+    </row>
+    <row r="36" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D36" s="7">
+        <v>275</v>
+      </c>
+      <c r="G36" s="9">
+        <v>0.3</v>
+      </c>
+      <c r="H36" s="10">
+        <v>12.3</v>
+      </c>
+      <c r="I36" s="10">
+        <f t="shared" si="3"/>
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="J36" s="11">
+        <f t="shared" si="4"/>
+        <v>2.2357723577235773</v>
+      </c>
+      <c r="K36" s="12">
+        <f t="shared" si="5"/>
+        <v>41.000000000000007</v>
+      </c>
+    </row>
+    <row r="37" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D37" s="7">
+        <v>292</v>
+      </c>
+      <c r="G37" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="H37" s="10">
+        <v>10.1</v>
+      </c>
+      <c r="I37" s="10">
+        <f t="shared" si="3"/>
+        <v>0.29199999999999998</v>
+      </c>
+      <c r="J37" s="11">
+        <f t="shared" si="4"/>
+        <v>2.891089108910891</v>
+      </c>
+      <c r="K37" s="12">
+        <f t="shared" si="5"/>
+        <v>50.499999999999993</v>
+      </c>
+    </row>
+    <row r="38" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D38" s="7">
+        <v>291</v>
+      </c>
+      <c r="G38" s="9">
+        <v>0.18</v>
+      </c>
+      <c r="H38" s="10">
+        <v>9.5399999999999991</v>
+      </c>
+      <c r="I38" s="10">
+        <f t="shared" si="3"/>
+        <v>0.29099999999999998</v>
+      </c>
+      <c r="J38" s="11">
+        <f t="shared" si="4"/>
+        <v>3.050314465408805</v>
+      </c>
+      <c r="K38" s="12">
+        <f t="shared" si="5"/>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="39" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D39" s="7">
+        <v>286</v>
+      </c>
+      <c r="G39" s="9">
+        <v>0.15</v>
+      </c>
+      <c r="H39" s="10">
+        <v>8.6300000000000008</v>
+      </c>
+      <c r="I39" s="10">
+        <f t="shared" si="3"/>
+        <v>0.28600000000000003</v>
+      </c>
+      <c r="J39" s="11">
+        <f t="shared" si="4"/>
+        <v>3.3140208574739281</v>
+      </c>
+      <c r="K39" s="12">
+        <f t="shared" si="5"/>
+        <v>57.533333333333339</v>
+      </c>
+    </row>
+    <row r="40" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D40" s="7">
+        <v>276</v>
+      </c>
+      <c r="G40" s="9">
+        <v>0.13</v>
+      </c>
+      <c r="H40" s="10">
+        <v>7.94</v>
+      </c>
+      <c r="I40" s="10">
+        <f t="shared" si="3"/>
+        <v>0.27600000000000002</v>
+      </c>
+      <c r="J40" s="11">
+        <f t="shared" si="4"/>
+        <v>3.4760705289672544</v>
+      </c>
+      <c r="K40" s="12">
+        <f t="shared" si="5"/>
+        <v>61.07692307692308</v>
+      </c>
+    </row>
+    <row r="41" spans="4:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D41" s="7">
+        <v>252</v>
+      </c>
+      <c r="G41" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="H41" s="14">
+        <v>6.76</v>
+      </c>
+      <c r="I41" s="14">
+        <f t="shared" si="3"/>
+        <v>0.252</v>
+      </c>
+      <c r="J41" s="15">
+        <f t="shared" si="4"/>
+        <v>3.7278106508875739</v>
+      </c>
+      <c r="K41" s="16">
+        <f t="shared" si="5"/>
+        <v>67.599999999999994</v>
+      </c>
+    </row>
+    <row r="42" spans="4:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/2 course/2 term/electrical engineering/labs/lab 1/lab1.xlsx
+++ b/2 course/2 term/electrical engineering/labs/lab 1/lab1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\data\education\2 course\2 term\electrical engineering\labs\lab 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EB5C986-10AC-413E-821F-6D664B48A176}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{559A0018-3AF6-4CDB-817E-4F01504C89FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14115" yWindow="-21600" windowWidth="25800" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="16200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -330,7 +330,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -338,18 +338,17 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
@@ -388,7 +387,17 @@
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.5341898052217169E-2"/>
+          <c:y val="0.1111111111111111"/>
+          <c:w val="0.8486796943904279"/>
+          <c:h val="0.79905876348789739"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -588,6 +597,70 @@
             </c:ext>
           </c:extLst>
         </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$N$25:$N$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$M$25:$M$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-ED2B-4C09-940E-14FBCEA11A5B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -621,6 +694,80 @@
           </c:spPr>
         </c:majorGridlines>
         <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1000" i="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:effectLst/>
+                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>I</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1000" i="0" baseline="-25000">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:effectLst/>
+                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>вых</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1000" i="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:effectLst/>
+                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>, А</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU" sz="1000"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.90422965347955009"/>
+              <c:y val="0.8323840769903762"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -633,13 +780,27 @@
             <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
             <a:lstStyle/>
             <a:p>
-              <a:pPr>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
                 <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
+                    <a:sysClr val="windowText" lastClr="000000">
                       <a:lumMod val="65000"/>
                       <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    </a:sysClr>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -695,6 +856,7 @@
         <c:axId val="728705504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="30"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -713,6 +875,80 @@
           </c:spPr>
         </c:majorGridlines>
         <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1000" i="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:effectLst/>
+                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>U</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1000" i="0" baseline="-25000">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:effectLst/>
+                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>вых</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1000" i="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:effectLst/>
+                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>, В</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU" sz="1000"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="5.3981106612685563E-2"/>
+              <c:y val="4.025845727617381E-2"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -722,16 +958,30 @@
             <a:effectLst/>
           </c:spPr>
           <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
             <a:lstStyle/>
             <a:p>
-              <a:pPr>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
                 <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
+                    <a:sysClr val="windowText" lastClr="000000">
                       <a:lumMod val="65000"/>
                       <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    </a:sysClr>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -851,7 +1101,17 @@
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="6.5949185501609886E-2"/>
+          <c:y val="0.10648148148148148"/>
+          <c:w val="0.84077146227166943"/>
+          <c:h val="0.80831802274715658"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -1051,6 +1311,70 @@
             </c:ext>
           </c:extLst>
         </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$N$21:$N$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$M$21:$M$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-30C1-4992-B0F3-35109C1334FA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -1084,6 +1408,73 @@
           </c:spPr>
         </c:majorGridlines>
         <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:effectLst/>
+                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>I</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="-25000">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:effectLst/>
+                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>вых</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:effectLst/>
+                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>, А</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.90548460794627372"/>
+              <c:y val="0.85090259550889469"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1158,6 +1549,7 @@
         <c:axId val="728705504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="4"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1176,6 +1568,66 @@
           </c:spPr>
         </c:majorGridlines>
         <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1000" i="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:effectLst/>
+                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>K</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1000" i="0" baseline="-25000">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:effectLst/>
+                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>п</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1000" i="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:effectLst/>
+                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>, %</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU" sz="1000"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="6.7476383265856948E-2"/>
+              <c:y val="3.5628827646544181E-2"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1185,7 +1637,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr>
@@ -2494,8 +2946,8 @@
       <xdr:rowOff>22701</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="425308" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="6" name="TextBox 5">
@@ -2537,6 +2989,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -2558,7 +3011,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -2588,7 +3041,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="6" name="TextBox 5">
@@ -2682,8 +3135,8 @@
       <xdr:rowOff>14287</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="414665" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="7" name="TextBox 6">
@@ -2725,6 +3178,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -2784,7 +3238,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="7" name="TextBox 6">
@@ -2890,8 +3344,8 @@
       <xdr:rowOff>4762</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="315214" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="8" name="TextBox 7">
@@ -3017,7 +3471,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="8" name="TextBox 7">
@@ -3148,8 +3602,8 @@
       <xdr:rowOff>14287</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="322075" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="9" name="TextBox 8">
@@ -3191,6 +3645,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -3250,7 +3705,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="9" name="TextBox 8">
@@ -3356,8 +3811,8 @@
       <xdr:rowOff>14287</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="364522" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="10" name="TextBox 9">
@@ -3399,6 +3854,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -3458,7 +3914,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="10" name="TextBox 9">
@@ -3824,8 +4280,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C59" sqref="C59"/>
+    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="R19" sqref="R19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3833,10 +4289,17 @@
     <col min="1" max="4" width="9.140625" style="1"/>
     <col min="5" max="5" width="12.28515625" style="1" customWidth="1"/>
     <col min="6" max="6" width="9.140625" style="1"/>
-    <col min="7" max="8" width="11.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
     <col min="9" max="9" width="13.85546875" style="1" customWidth="1"/>
-    <col min="10" max="11" width="12.7109375" style="1" customWidth="1"/>
-    <col min="12" max="18" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.140625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="13.5703125" style="1" customWidth="1"/>
+    <col min="14" max="15" width="14.28515625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="15" style="1" customWidth="1"/>
+    <col min="17" max="17" width="13.7109375" style="1" customWidth="1"/>
+    <col min="18" max="18" width="14" style="1" customWidth="1"/>
     <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -4099,47 +4562,47 @@
         <v>22</v>
       </c>
       <c r="H14" s="2">
-        <f>H13*10^(-3)</f>
+        <f t="shared" ref="H14:R14" si="0">H13*10^(-3)</f>
         <v>4.5999999999999999E-3</v>
       </c>
       <c r="I14" s="2">
-        <f>I13*10^(-3)</f>
+        <f t="shared" si="0"/>
         <v>0.504</v>
       </c>
       <c r="J14" s="2">
-        <f>J13*10^(-3)</f>
+        <f t="shared" si="0"/>
         <v>0.32700000000000001</v>
       </c>
       <c r="K14" s="2">
-        <f>K13*10^(-3)</f>
+        <f t="shared" si="0"/>
         <v>0.21199999999999999</v>
       </c>
       <c r="L14" s="2">
-        <f>L13*10^(-3)</f>
+        <f t="shared" si="0"/>
         <v>0.23100000000000001</v>
       </c>
       <c r="M14" s="2">
-        <f>M13*10^(-3)</f>
+        <f t="shared" si="0"/>
         <v>0.15</v>
       </c>
       <c r="N14" s="2">
-        <f>N13*10^(-3)</f>
+        <f t="shared" si="0"/>
         <v>0.19500000000000001</v>
       </c>
       <c r="O14" s="2">
-        <f>O13*10^(-3)</f>
+        <f t="shared" si="0"/>
         <v>0.223</v>
       </c>
       <c r="P14" s="5">
-        <f>P13*10^(-3)</f>
+        <f t="shared" si="0"/>
         <v>0.22600000000000001</v>
       </c>
       <c r="Q14" s="2">
-        <f>Q13*10^(-3)</f>
+        <f t="shared" si="0"/>
         <v>0.22700000000000001</v>
       </c>
       <c r="R14" s="6">
-        <f>R13*10^(-3)</f>
+        <f t="shared" si="0"/>
         <v>0.22500000000000001</v>
       </c>
     </row>
@@ -4148,47 +4611,47 @@
         <v>10</v>
       </c>
       <c r="H15" s="2">
-        <f>H14/H12*100</f>
+        <f t="shared" ref="H15:R15" si="1">H14/H12*100</f>
         <v>3.0666666666666668E-2</v>
       </c>
       <c r="I15" s="2">
-        <f>I14/I12*100</f>
+        <f t="shared" si="1"/>
         <v>3.36</v>
       </c>
       <c r="J15" s="2">
-        <f>J14/J12*100</f>
+        <f t="shared" si="1"/>
         <v>2.1800000000000002</v>
       </c>
       <c r="K15" s="2">
-        <f>K14/K12*100</f>
+        <f t="shared" si="1"/>
         <v>1.4133333333333333</v>
       </c>
       <c r="L15" s="2">
-        <f>L14/L12*100</f>
+        <f t="shared" si="1"/>
         <v>1.54</v>
       </c>
       <c r="M15" s="2">
-        <f>M14/M12*100</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="N15" s="2">
-        <f>N14/N12*100</f>
+        <f t="shared" si="1"/>
         <v>1.3</v>
       </c>
       <c r="O15" s="2">
-        <f>O14/O12*100</f>
+        <f t="shared" si="1"/>
         <v>1.4866666666666668</v>
       </c>
       <c r="P15" s="5">
-        <f>P14/P12*100</f>
+        <f t="shared" si="1"/>
         <v>1.5066666666666668</v>
       </c>
       <c r="Q15" s="2">
-        <f>Q14/Q12*100</f>
+        <f t="shared" si="1"/>
         <v>1.5133333333333334</v>
       </c>
       <c r="R15" s="6">
-        <f>R14/R12*100</f>
+        <f t="shared" si="1"/>
         <v>1.5000000000000002</v>
       </c>
     </row>
@@ -4198,589 +4661,623 @@
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
     </row>
-    <row r="17" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F17" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G17" s="21"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="22"/>
-      <c r="J17" s="22"/>
-      <c r="K17" s="23"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="22"/>
+      <c r="M17" s="1">
+        <v>15</v>
+      </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D18" s="1">
         <v>0.12</v>
       </c>
-      <c r="G18" s="17">
+      <c r="G18" s="16">
         <v>50000</v>
       </c>
-      <c r="H18" s="18">
+      <c r="H18" s="17">
         <v>25.6</v>
       </c>
-      <c r="I18" s="18">
-        <f t="shared" ref="I18:I20" si="0">D18*10^(-3)</f>
+      <c r="I18" s="17">
+        <f t="shared" ref="I18:I20" si="2">D18*10^(-3)</f>
         <v>1.2E-4</v>
       </c>
-      <c r="J18" s="19">
-        <f t="shared" ref="J18:J20" si="1">I18/H18*100</f>
+      <c r="J18" s="18">
+        <f t="shared" ref="J18:J20" si="3">I18/H18*100</f>
         <v>4.6874999999999998E-4</v>
       </c>
-      <c r="K18" s="20">
+      <c r="K18" s="19">
         <f>H18/G18</f>
         <v>5.1199999999999998E-4</v>
       </c>
+      <c r="M18" s="1">
+        <v>450</v>
+      </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D19" s="1">
         <v>0.33</v>
       </c>
-      <c r="G19" s="9">
+      <c r="G19" s="8">
         <v>5000</v>
       </c>
-      <c r="H19" s="10">
+      <c r="H19" s="9">
         <v>25.5</v>
       </c>
-      <c r="I19" s="10">
-        <f t="shared" si="0"/>
+      <c r="I19" s="9">
+        <f t="shared" si="2"/>
         <v>3.3E-4</v>
       </c>
-      <c r="J19" s="11">
-        <f t="shared" si="1"/>
+      <c r="J19" s="10">
+        <f t="shared" si="3"/>
         <v>1.2941176470588236E-3</v>
       </c>
-      <c r="K19" s="12">
-        <f t="shared" ref="K19:K20" si="2">H19/G19</f>
+      <c r="K19" s="11">
+        <f t="shared" ref="K19:K20" si="4">H19/G19</f>
         <v>5.1000000000000004E-3</v>
       </c>
+      <c r="M19" s="1">
+        <f>M18/M17</f>
+        <v>30</v>
+      </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D20" s="1">
         <v>0.54</v>
       </c>
-      <c r="G20" s="9">
+      <c r="G20" s="8">
         <v>500</v>
       </c>
-      <c r="H20" s="10">
+      <c r="H20" s="9">
         <v>25.3</v>
       </c>
-      <c r="I20" s="10">
-        <f t="shared" si="0"/>
+      <c r="I20" s="9">
+        <f t="shared" si="2"/>
         <v>5.4000000000000001E-4</v>
       </c>
-      <c r="J20" s="11">
-        <f t="shared" si="1"/>
+      <c r="J20" s="10">
+        <f t="shared" si="3"/>
         <v>2.1343873517786563E-3</v>
       </c>
-      <c r="K20" s="12">
-        <f t="shared" si="2"/>
+      <c r="K20" s="11">
+        <f t="shared" si="4"/>
         <v>5.0599999999999999E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D21" s="7">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D21" s="1">
         <v>4.3099999999999996</v>
       </c>
-      <c r="G21" s="9">
+      <c r="G21" s="8">
         <v>50</v>
       </c>
-      <c r="H21" s="10">
+      <c r="H21" s="9">
         <v>25.1</v>
       </c>
-      <c r="I21" s="10">
+      <c r="I21" s="9">
         <f>D21*10^(-3)</f>
         <v>4.3099999999999996E-3</v>
       </c>
-      <c r="J21" s="11">
+      <c r="J21" s="10">
         <f>I21/H21*100</f>
         <v>1.7171314741035854E-2</v>
       </c>
-      <c r="K21" s="12">
+      <c r="K21" s="11">
         <f>H21/G21</f>
         <v>0.502</v>
       </c>
+      <c r="M21" s="1">
+        <v>0</v>
+      </c>
+      <c r="N21" s="1">
+        <v>30</v>
+      </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D22" s="7">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D22" s="1">
         <v>6.13</v>
       </c>
-      <c r="G22" s="9">
+      <c r="G22" s="8">
         <v>35</v>
       </c>
-      <c r="H22" s="10">
+      <c r="H22" s="9">
         <v>25</v>
       </c>
-      <c r="I22" s="10">
-        <f t="shared" ref="I22:I41" si="3">D22*10^(-3)</f>
+      <c r="I22" s="9">
+        <f t="shared" ref="I22:I41" si="5">D22*10^(-3)</f>
         <v>6.13E-3</v>
       </c>
-      <c r="J22" s="11">
-        <f t="shared" ref="J22:J41" si="4">I22/H22*100</f>
+      <c r="J22" s="10">
+        <f t="shared" ref="J22:J41" si="6">I22/H22*100</f>
         <v>2.452E-2</v>
       </c>
-      <c r="K22" s="12">
-        <f t="shared" ref="K22:K41" si="5">H22/G22</f>
+      <c r="K22" s="11">
+        <f t="shared" ref="K22:K41" si="7">H22/G22</f>
         <v>0.7142857142857143</v>
       </c>
+      <c r="M22" s="1">
+        <v>4</v>
+      </c>
+      <c r="N22" s="1">
+        <v>30</v>
+      </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="8"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="7">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" s="7"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="1">
         <v>10.8</v>
       </c>
-      <c r="G23" s="9">
+      <c r="G23" s="8">
         <v>20</v>
       </c>
-      <c r="H23" s="10">
+      <c r="H23" s="9">
         <v>24.8</v>
       </c>
-      <c r="I23" s="10">
-        <f t="shared" si="3"/>
+      <c r="I23" s="9">
+        <f t="shared" si="5"/>
         <v>1.0800000000000001E-2</v>
       </c>
-      <c r="J23" s="11">
-        <f t="shared" si="4"/>
+      <c r="J23" s="10">
+        <f t="shared" si="6"/>
         <v>4.3548387096774194E-2</v>
       </c>
-      <c r="K23" s="12">
-        <f t="shared" si="5"/>
+      <c r="K23" s="11">
+        <f t="shared" si="7"/>
         <v>1.24</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>26.1</v>
       </c>
-      <c r="B24" s="8">
+      <c r="B24" s="7">
         <f>B25/A25 * A24</f>
         <v>67.037671232876718</v>
       </c>
-      <c r="C24" s="8"/>
-      <c r="D24" s="7">
+      <c r="C24" s="7"/>
+      <c r="D24" s="1">
         <v>21.9</v>
       </c>
-      <c r="G24" s="9">
+      <c r="G24" s="8">
         <v>10</v>
       </c>
-      <c r="H24" s="10">
+      <c r="H24" s="9">
         <v>24.3</v>
       </c>
-      <c r="I24" s="10">
-        <f t="shared" si="3"/>
+      <c r="I24" s="9">
+        <f t="shared" si="5"/>
         <v>2.1899999999999999E-2</v>
       </c>
-      <c r="J24" s="11">
-        <f t="shared" si="4"/>
+      <c r="J24" s="10">
+        <f t="shared" si="6"/>
         <v>9.0123456790123443E-2</v>
       </c>
-      <c r="K24" s="12">
+      <c r="K24" s="11">
+        <f t="shared" si="7"/>
+        <v>2.4300000000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" s="7">
+        <v>5.84</v>
+      </c>
+      <c r="B25" s="7">
+        <v>15</v>
+      </c>
+      <c r="C25" s="7"/>
+      <c r="D25" s="1">
+        <v>26.8</v>
+      </c>
+      <c r="G25" s="8">
+        <v>8</v>
+      </c>
+      <c r="H25" s="9">
+        <v>24</v>
+      </c>
+      <c r="I25" s="9">
         <f t="shared" si="5"/>
-        <v>2.4300000000000002</v>
+        <v>2.6800000000000001E-2</v>
+      </c>
+      <c r="J25" s="10">
+        <f t="shared" si="6"/>
+        <v>0.11166666666666666</v>
+      </c>
+      <c r="K25" s="11">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="M25" s="1">
+        <v>0</v>
+      </c>
+      <c r="N25" s="1">
+        <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="8">
-        <v>5.84</v>
-      </c>
-      <c r="B25" s="8">
-        <v>15</v>
-      </c>
-      <c r="C25" s="8"/>
-      <c r="D25" s="7">
-        <v>26.8</v>
-      </c>
-      <c r="G25" s="9">
-        <v>8</v>
-      </c>
-      <c r="H25" s="10">
-        <v>24</v>
-      </c>
-      <c r="I25" s="10">
-        <f t="shared" si="3"/>
-        <v>2.6800000000000001E-2</v>
-      </c>
-      <c r="J25" s="11">
-        <f t="shared" si="4"/>
-        <v>0.11166666666666666</v>
-      </c>
-      <c r="K25" s="12">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" s="7"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="1">
+        <v>35</v>
+      </c>
+      <c r="G26" s="8">
+        <v>6</v>
+      </c>
+      <c r="H26" s="9">
+        <v>23.7</v>
+      </c>
+      <c r="I26" s="9">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="J26" s="10">
+        <f t="shared" si="6"/>
+        <v>0.14767932489451477</v>
+      </c>
+      <c r="K26" s="11">
+        <f t="shared" si="7"/>
+        <v>3.9499999999999997</v>
+      </c>
+      <c r="M26" s="1">
+        <v>30</v>
+      </c>
+      <c r="N26" s="1">
+        <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="8"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="7">
-        <v>35</v>
-      </c>
-      <c r="G26" s="9">
-        <v>6</v>
-      </c>
-      <c r="H26" s="10">
-        <v>23.7</v>
-      </c>
-      <c r="I26" s="10">
-        <f t="shared" si="3"/>
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="J26" s="11">
-        <f t="shared" si="4"/>
-        <v>0.14767932489451477</v>
-      </c>
-      <c r="K26" s="12">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" s="7"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="1">
+        <v>49.4</v>
+      </c>
+      <c r="G27" s="8">
+        <v>4</v>
+      </c>
+      <c r="H27" s="9">
+        <v>22.9</v>
+      </c>
+      <c r="I27" s="9">
         <f t="shared" si="5"/>
-        <v>3.9499999999999997</v>
+        <v>4.9399999999999999E-2</v>
+      </c>
+      <c r="J27" s="10">
+        <f t="shared" si="6"/>
+        <v>0.21572052401746725</v>
+      </c>
+      <c r="K27" s="11">
+        <f t="shared" si="7"/>
+        <v>5.7249999999999996</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="8"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="7">
-        <v>49.4</v>
-      </c>
-      <c r="G27" s="9">
-        <v>4</v>
-      </c>
-      <c r="H27" s="10">
-        <v>22.9</v>
-      </c>
-      <c r="I27" s="10">
-        <f t="shared" si="3"/>
-        <v>4.9399999999999999E-2</v>
-      </c>
-      <c r="J27" s="11">
-        <f t="shared" si="4"/>
-        <v>0.21572052401746725</v>
-      </c>
-      <c r="K27" s="12">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D28" s="1">
+        <v>88.1</v>
+      </c>
+      <c r="G28" s="8">
+        <v>2</v>
+      </c>
+      <c r="H28" s="9">
+        <v>21.1</v>
+      </c>
+      <c r="I28" s="9">
         <f t="shared" si="5"/>
-        <v>5.7249999999999996</v>
+        <v>8.8099999999999998E-2</v>
+      </c>
+      <c r="J28" s="10">
+        <f t="shared" si="6"/>
+        <v>0.41753554502369661</v>
+      </c>
+      <c r="K28" s="11">
+        <f t="shared" si="7"/>
+        <v>10.55</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D28" s="7">
-        <v>88.1</v>
-      </c>
-      <c r="G28" s="9">
-        <v>2</v>
-      </c>
-      <c r="H28" s="10">
-        <v>21.1</v>
-      </c>
-      <c r="I28" s="10">
-        <f t="shared" si="3"/>
-        <v>8.8099999999999998E-2</v>
-      </c>
-      <c r="J28" s="11">
-        <f t="shared" si="4"/>
-        <v>0.41753554502369661</v>
-      </c>
-      <c r="K28" s="12">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D29" s="1">
+        <v>148</v>
+      </c>
+      <c r="G29" s="8">
+        <v>1</v>
+      </c>
+      <c r="H29" s="9">
+        <v>18.5</v>
+      </c>
+      <c r="I29" s="9">
         <f t="shared" si="5"/>
-        <v>10.55</v>
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="J29" s="10">
+        <f t="shared" si="6"/>
+        <v>0.8</v>
+      </c>
+      <c r="K29" s="11">
+        <f t="shared" si="7"/>
+        <v>18.5</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D29" s="7">
-        <v>148</v>
-      </c>
-      <c r="G29" s="9">
-        <v>1</v>
-      </c>
-      <c r="H29" s="10">
-        <v>18.5</v>
-      </c>
-      <c r="I29" s="10">
-        <f t="shared" si="3"/>
-        <v>0.14799999999999999</v>
-      </c>
-      <c r="J29" s="11">
-        <f t="shared" si="4"/>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D30" s="1">
+        <v>159</v>
+      </c>
+      <c r="G30" s="8">
+        <v>0.9</v>
+      </c>
+      <c r="H30" s="9">
+        <v>18</v>
+      </c>
+      <c r="I30" s="9">
+        <f t="shared" si="5"/>
+        <v>0.159</v>
+      </c>
+      <c r="J30" s="10">
+        <f t="shared" si="6"/>
+        <v>0.88333333333333341</v>
+      </c>
+      <c r="K30" s="11">
+        <f t="shared" si="7"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D31" s="1">
+        <v>173</v>
+      </c>
+      <c r="G31" s="8">
         <v>0.8</v>
       </c>
-      <c r="K29" s="12">
+      <c r="H31" s="9">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="I31" s="9">
         <f t="shared" si="5"/>
-        <v>18.5</v>
+        <v>0.17300000000000001</v>
+      </c>
+      <c r="J31" s="10">
+        <f t="shared" si="6"/>
+        <v>0.99425287356321856</v>
+      </c>
+      <c r="K31" s="11">
+        <f t="shared" si="7"/>
+        <v>21.749999999999996</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D30" s="7">
-        <v>159</v>
-      </c>
-      <c r="G30" s="9">
-        <v>0.9</v>
-      </c>
-      <c r="H30" s="10">
-        <v>18</v>
-      </c>
-      <c r="I30" s="10">
-        <f t="shared" si="3"/>
-        <v>0.159</v>
-      </c>
-      <c r="J30" s="11">
-        <f t="shared" si="4"/>
-        <v>0.88333333333333341</v>
-      </c>
-      <c r="K30" s="12">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D32" s="1">
+        <v>187</v>
+      </c>
+      <c r="G32" s="8">
+        <v>0.7</v>
+      </c>
+      <c r="H32" s="9">
+        <v>16.8</v>
+      </c>
+      <c r="I32" s="9">
         <f t="shared" si="5"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D31" s="7">
-        <v>173</v>
-      </c>
-      <c r="G31" s="9">
-        <v>0.8</v>
-      </c>
-      <c r="H31" s="10">
-        <v>17.399999999999999</v>
-      </c>
-      <c r="I31" s="10">
-        <f t="shared" si="3"/>
-        <v>0.17300000000000001</v>
-      </c>
-      <c r="J31" s="11">
-        <f t="shared" si="4"/>
-        <v>0.99425287356321856</v>
-      </c>
-      <c r="K31" s="12">
-        <f t="shared" si="5"/>
-        <v>21.749999999999996</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D32" s="7">
-        <v>187</v>
-      </c>
-      <c r="G32" s="9">
-        <v>0.7</v>
-      </c>
-      <c r="H32" s="10">
-        <v>16.8</v>
-      </c>
-      <c r="I32" s="10">
-        <f t="shared" si="3"/>
         <v>0.187</v>
       </c>
-      <c r="J32" s="11">
-        <f t="shared" si="4"/>
+      <c r="J32" s="10">
+        <f t="shared" si="6"/>
         <v>1.1130952380952381</v>
       </c>
-      <c r="K32" s="12">
-        <f t="shared" si="5"/>
+      <c r="K32" s="11">
+        <f t="shared" si="7"/>
         <v>24.000000000000004</v>
       </c>
     </row>
     <row r="33" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D33" s="7">
+      <c r="D33" s="1">
         <v>205</v>
       </c>
-      <c r="G33" s="9">
+      <c r="G33" s="8">
         <v>0.6</v>
       </c>
-      <c r="H33" s="10">
+      <c r="H33" s="9">
         <v>16</v>
       </c>
-      <c r="I33" s="10">
-        <f t="shared" si="3"/>
+      <c r="I33" s="9">
+        <f t="shared" si="5"/>
         <v>0.20500000000000002</v>
       </c>
-      <c r="J33" s="11">
-        <f t="shared" si="4"/>
+      <c r="J33" s="10">
+        <f t="shared" si="6"/>
         <v>1.28125</v>
       </c>
-      <c r="K33" s="12">
-        <f t="shared" si="5"/>
+      <c r="K33" s="11">
+        <f t="shared" si="7"/>
         <v>26.666666666666668</v>
       </c>
     </row>
     <row r="34" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D34" s="7">
+      <c r="D34" s="1">
         <v>225</v>
       </c>
-      <c r="G34" s="9">
+      <c r="G34" s="8">
         <v>0.5</v>
       </c>
-      <c r="H34" s="10">
+      <c r="H34" s="9">
         <v>15</v>
       </c>
-      <c r="I34" s="10">
-        <f t="shared" si="3"/>
+      <c r="I34" s="9">
+        <f t="shared" si="5"/>
         <v>0.22500000000000001</v>
       </c>
-      <c r="J34" s="11">
-        <f t="shared" si="4"/>
+      <c r="J34" s="10">
+        <f t="shared" si="6"/>
         <v>1.5000000000000002</v>
       </c>
-      <c r="K34" s="12">
-        <f t="shared" si="5"/>
+      <c r="K34" s="11">
+        <f t="shared" si="7"/>
         <v>30</v>
       </c>
     </row>
     <row r="35" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D35" s="7">
+      <c r="D35" s="1">
         <v>249</v>
       </c>
-      <c r="G35" s="9">
+      <c r="G35" s="8">
         <v>0.4</v>
       </c>
-      <c r="H35" s="10">
+      <c r="H35" s="9">
         <v>13.8</v>
       </c>
-      <c r="I35" s="10">
-        <f t="shared" si="3"/>
+      <c r="I35" s="9">
+        <f t="shared" si="5"/>
         <v>0.249</v>
       </c>
-      <c r="J35" s="11">
-        <f t="shared" si="4"/>
+      <c r="J35" s="10">
+        <f t="shared" si="6"/>
         <v>1.8043478260869563</v>
       </c>
-      <c r="K35" s="12">
-        <f t="shared" si="5"/>
+      <c r="K35" s="11">
+        <f t="shared" si="7"/>
         <v>34.5</v>
       </c>
     </row>
     <row r="36" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D36" s="7">
+      <c r="D36" s="1">
         <v>275</v>
       </c>
-      <c r="G36" s="9">
+      <c r="G36" s="8">
         <v>0.3</v>
       </c>
-      <c r="H36" s="10">
+      <c r="H36" s="9">
         <v>12.3</v>
       </c>
-      <c r="I36" s="10">
-        <f t="shared" si="3"/>
+      <c r="I36" s="9">
+        <f t="shared" si="5"/>
         <v>0.27500000000000002</v>
       </c>
-      <c r="J36" s="11">
-        <f t="shared" si="4"/>
+      <c r="J36" s="10">
+        <f t="shared" si="6"/>
         <v>2.2357723577235773</v>
       </c>
-      <c r="K36" s="12">
-        <f t="shared" si="5"/>
+      <c r="K36" s="11">
+        <f t="shared" si="7"/>
         <v>41.000000000000007</v>
       </c>
     </row>
     <row r="37" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D37" s="7">
+      <c r="D37" s="1">
         <v>292</v>
       </c>
-      <c r="G37" s="9">
+      <c r="G37" s="8">
         <v>0.2</v>
       </c>
-      <c r="H37" s="10">
+      <c r="H37" s="9">
         <v>10.1</v>
       </c>
-      <c r="I37" s="10">
-        <f t="shared" si="3"/>
+      <c r="I37" s="9">
+        <f t="shared" si="5"/>
         <v>0.29199999999999998</v>
       </c>
-      <c r="J37" s="11">
-        <f t="shared" si="4"/>
+      <c r="J37" s="10">
+        <f t="shared" si="6"/>
         <v>2.891089108910891</v>
       </c>
-      <c r="K37" s="12">
-        <f t="shared" si="5"/>
+      <c r="K37" s="11">
+        <f t="shared" si="7"/>
         <v>50.499999999999993</v>
       </c>
     </row>
     <row r="38" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D38" s="7">
+      <c r="D38" s="1">
         <v>291</v>
       </c>
-      <c r="G38" s="9">
+      <c r="G38" s="8">
         <v>0.18</v>
       </c>
-      <c r="H38" s="10">
+      <c r="H38" s="9">
         <v>9.5399999999999991</v>
       </c>
-      <c r="I38" s="10">
-        <f t="shared" si="3"/>
+      <c r="I38" s="9">
+        <f t="shared" si="5"/>
         <v>0.29099999999999998</v>
       </c>
-      <c r="J38" s="11">
-        <f t="shared" si="4"/>
+      <c r="J38" s="10">
+        <f t="shared" si="6"/>
         <v>3.050314465408805</v>
       </c>
-      <c r="K38" s="12">
-        <f t="shared" si="5"/>
+      <c r="K38" s="11">
+        <f t="shared" si="7"/>
         <v>53</v>
       </c>
     </row>
     <row r="39" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D39" s="7">
+      <c r="D39" s="1">
         <v>286</v>
       </c>
-      <c r="G39" s="9">
+      <c r="G39" s="8">
         <v>0.15</v>
       </c>
-      <c r="H39" s="10">
+      <c r="H39" s="9">
         <v>8.6300000000000008</v>
       </c>
-      <c r="I39" s="10">
-        <f t="shared" si="3"/>
+      <c r="I39" s="9">
+        <f t="shared" si="5"/>
         <v>0.28600000000000003</v>
       </c>
-      <c r="J39" s="11">
-        <f t="shared" si="4"/>
+      <c r="J39" s="10">
+        <f t="shared" si="6"/>
         <v>3.3140208574739281</v>
       </c>
-      <c r="K39" s="12">
-        <f t="shared" si="5"/>
+      <c r="K39" s="11">
+        <f t="shared" si="7"/>
         <v>57.533333333333339</v>
       </c>
     </row>
     <row r="40" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D40" s="7">
+      <c r="D40" s="1">
         <v>276</v>
       </c>
-      <c r="G40" s="9">
+      <c r="G40" s="8">
         <v>0.13</v>
       </c>
-      <c r="H40" s="10">
+      <c r="H40" s="9">
         <v>7.94</v>
       </c>
-      <c r="I40" s="10">
-        <f t="shared" si="3"/>
+      <c r="I40" s="9">
+        <f t="shared" si="5"/>
         <v>0.27600000000000002</v>
       </c>
-      <c r="J40" s="11">
-        <f t="shared" si="4"/>
+      <c r="J40" s="10">
+        <f t="shared" si="6"/>
         <v>3.4760705289672544</v>
       </c>
-      <c r="K40" s="12">
-        <f t="shared" si="5"/>
+      <c r="K40" s="11">
+        <f t="shared" si="7"/>
         <v>61.07692307692308</v>
       </c>
     </row>
     <row r="41" spans="4:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D41" s="7">
+      <c r="D41" s="1">
         <v>252</v>
       </c>
-      <c r="G41" s="13">
+      <c r="G41" s="12">
         <v>0.1</v>
       </c>
-      <c r="H41" s="14">
+      <c r="H41" s="13">
         <v>6.76</v>
       </c>
-      <c r="I41" s="14">
-        <f t="shared" si="3"/>
+      <c r="I41" s="13">
+        <f t="shared" si="5"/>
         <v>0.252</v>
       </c>
-      <c r="J41" s="15">
-        <f t="shared" si="4"/>
+      <c r="J41" s="14">
+        <f t="shared" si="6"/>
         <v>3.7278106508875739</v>
       </c>
-      <c r="K41" s="16">
-        <f t="shared" si="5"/>
+      <c r="K41" s="15">
+        <f t="shared" si="7"/>
         <v>67.599999999999994</v>
       </c>
     </row>
